--- a/public/template/archive/modelo_disparar_messagens.xlsx
+++ b/public/template/archive/modelo_disparar_messagens.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\thiag\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\wamp\www\cidadaoplus-app\public\template\archive\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B2C53EE-FBB9-4BEE-AC41-9C3510F7CEAB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5327F0D-D473-4C59-968A-CC0DD5CCBE83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2472" yWindow="2472" windowWidth="17280" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -20,16 +20,97 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+  <si>
+    <t>Identificador Apoiador</t>
+  </si>
+  <si>
+    <t>Nome</t>
+  </si>
+  <si>
+    <t>D. Nascimento</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Profissão</t>
+  </si>
   <si>
     <t>WhatsApp</t>
+  </si>
+  <si>
+    <t>Email</t>
+  </si>
+  <si>
+    <t>instagram</t>
+  </si>
+  <si>
+    <t>facebook</t>
+  </si>
+  <si>
+    <t>CEP</t>
+  </si>
+  <si>
+    <t>Endereço</t>
+  </si>
+  <si>
+    <t>N°</t>
+  </si>
+  <si>
+    <t>Bairro</t>
+  </si>
+  <si>
+    <t>Cidade</t>
+  </si>
+  <si>
+    <t>Estado</t>
+  </si>
+  <si>
+    <t>Apoiador</t>
+  </si>
+  <si>
+    <t>Tipo</t>
+  </si>
+  <si>
+    <t>Opções</t>
+  </si>
+  <si>
+    <t>Maria Eugênia do Nascimento Cardoso</t>
+  </si>
+  <si>
+    <t>Fem</t>
+  </si>
+  <si>
+    <t>outros</t>
+  </si>
+  <si>
+    <t>Avenida Doutor João Medeiros Filho</t>
+  </si>
+  <si>
+    <t>Redinha Velha</t>
+  </si>
+  <si>
+    <t>Natal</t>
+  </si>
+  <si>
+    <t>RN</t>
+  </si>
+  <si>
+    <t>Edson de Souza</t>
+  </si>
+  <si>
+    <t>Eleitor</t>
+  </si>
+  <si>
+    <t>(84) 99895-2050</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -37,37 +118,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="1" tint="4.9989318521683403E-2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -75,39 +135,13 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -447,35 +481,121 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:R2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.19921875" style="1" customWidth="1"/>
-    <col min="2" max="16384" width="8.796875" style="2"/>
+    <col min="6" max="6" width="22.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>84987933499</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="D7" s="4"/>
+    <row r="2" spans="1:18" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>73</v>
+      </c>
+      <c r="B2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="1">
+        <v>21992.875</v>
+      </c>
+      <c r="D2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" t="s">
+        <v>20</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="J2">
+        <v>59122005</v>
+      </c>
+      <c r="K2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2">
+        <v>8470</v>
+      </c>
+      <c r="M2" t="s">
+        <v>22</v>
+      </c>
+      <c r="N2" t="s">
+        <v>23</v>
+      </c>
+      <c r="O2" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>26</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <ignoredErrors>
-    <ignoredError sqref="A1 B2 B1" numberStoredAsText="1"/>
+    <ignoredError sqref="A1:R1 A2:E2 G2:R2" numberStoredAsText="1"/>
   </ignoredErrors>
 </worksheet>
 </file>